--- a/biology/Histoire de la zoologie et de la botanique/Médaille_Daniel-Giraud-Elliot/Médaille_Daniel-Giraud-Elliot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Médaille_Daniel-Giraud-Elliot/Médaille_Daniel-Giraud-Elliot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Daniel-Giraud-Elliot</t>
+          <t>Médaille_Daniel-Giraud-Elliot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Daniel-Giraud-Elliot est une distinction scientifique décernée par la National Academy of Sciences (académie des sciences des USA) pour des travaux importants dans le domaine de la zoologie ou de la paléontologie. Elle célèbre la mémoire de Daniel Giraud Elliot (1837-1915), zoologiste américain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Daniel-Giraud-Elliot</t>
+          <t>Médaille_Daniel-Giraud-Elliot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1917 à 1919
